--- a/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P33_MIN_2023_R-Estudios-trans_orig.xlsx
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>38.91653117167841</v>
+        <v>39.11673513534436</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>38.12613551560941</v>
+        <v>37.7060338036791</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39.24263309623554</v>
+        <v>39.59527927139554</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>47.14153043104399</v>
+        <v>47.71526175198996</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.40648591633319</v>
+        <v>44.80175511417345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44.64987452552649</v>
+        <v>44.72432365095798</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>39.61079138472352</v>
+        <v>39.61079138472351</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>37.90532488288729</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>36.53990177114576</v>
+        <v>36.44320644638276</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>34.73193043570768</v>
+        <v>34.71166735097925</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36.37641518830615</v>
+        <v>36.54126428646963</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>43.47521854538307</v>
+        <v>43.58255722084522</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.75870730004186</v>
+        <v>41.84940352147949</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41.40082070721618</v>
+        <v>41.42611628896622</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>25.43151233509776</v>
+        <v>25.04335204521757</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>24.76757625871543</v>
+        <v>24.75606124258238</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>26.34066083712509</v>
+        <v>26.08185908850366</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>35.60433518939496</v>
+        <v>35.36100613231474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>40.95358200358256</v>
+        <v>42.26545811578355</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35.41608710030644</v>
+        <v>35.23009200214066</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>38.47300817518548</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>37.47040548633075</v>
+        <v>37.47040548633076</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>38.00811386177146</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>36.09793887164619</v>
+        <v>35.92459976887306</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>35.1211778636339</v>
+        <v>34.97890942503143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>36.367538169971</v>
+        <v>36.28380579715555</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>40.93294679994072</v>
+        <v>40.9702482223862</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>40.08444894782844</v>
+        <v>40.22045700707705</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.93286191998687</v>
+        <v>39.85605953905599</v>
       </c>
     </row>
     <row r="16">
